--- a/docs/mobile-attack-v13.0/mobile-attack-v13.0-mitigations.xlsx
+++ b/docs/mobile-attack-v13.0/mobile-attack-v13.0-mitigations.xlsx
@@ -196,10 +196,10 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>(Citation: iOS Universal Links),(Citation: Nightwatch screencap April 2016),(Citation: IETF-PKCE),(Citation: Android App Links)</t>
-  </si>
-  <si>
-    <t>(Citation: Android Notification Listeners),(Citation: Samsung Keyboards)</t>
+    <t>(Citation: iOS Universal Links),(Citation: Nightwatch screencap April 2016),(Citation: Android App Links),(Citation: IETF-PKCE)</t>
+  </si>
+  <si>
+    <t>(Citation: Samsung Keyboards),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: CSRIC5-WG10-FinalReport),(Citation: CSRIC-WG1-FinalReport)</t>
@@ -208,7 +208,7 @@
     <t>(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
-    <t>(Citation: LauncherApps getActivityList),(Citation: Android 10 Privacy Changes),(Citation: Elcomsoft-iOSRestricted),(Citation: Android 10 Execute),(Citation: TelephonyManager),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android Capture Sensor 2019),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: Android Changes to System Broadcasts),(Citation: Android Package Visibility),(Citation: Android 12 Features),(Citation: GoogleIO2016)</t>
+    <t>(Citation: GoogleIO2016),(Citation: Elcomsoft-iOSRestricted),(Citation: Android 10 Execute),(Citation: Android Changes to System Broadcasts),(Citation: Android-TrustedCA),(Citation: Android Package Visibility),(Citation: Trend Micro iOS URL Hijacking),(Citation: LauncherApps getActivityList),(Citation: TelephonyManager),(Citation: Symantec-iOSProfile2),(Citation: Android Capture Sensor 2019),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: Android 12 Features),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
     <t>(Citation: SMS KitKat)</t>
